--- a/Mainboard/Project Outputs for Mainboard/Mainboard_V1.0 BOM.xlsx
+++ b/Mainboard/Project Outputs for Mainboard/Mainboard_V1.0 BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\GoogleDrive\MSE\PA-OST-2023\heron-hardware\Mainboard\Project Outputs for Mainboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8CDA221-9FF5-4251-A1D1-5BC5AD16B066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C40400-93B9-46EE-8CF9-81013AA144E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="210">
   <si>
     <t>100nF 50V</t>
   </si>
@@ -187,9 +187,6 @@
     <t>LSM303AGRTR</t>
   </si>
   <si>
-    <t>ADAU7118ACPZRL</t>
-  </si>
-  <si>
     <t>KH-TYPE-C-L10-14P</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>U5</t>
   </si>
   <si>
-    <t>U7A, U7B, U7C, U7D</t>
-  </si>
-  <si>
     <t>X1, X6</t>
   </si>
   <si>
@@ -463,9 +457,6 @@
     <t>SMD IC LGA-12</t>
   </si>
   <si>
-    <t>SMD IC QFN-16</t>
-  </si>
-  <si>
     <t>THT USB-C Socket (KH-TYPE-C-L10-14P)</t>
   </si>
   <si>
@@ -640,9 +631,6 @@
     <t>C126671</t>
   </si>
   <si>
-    <t>C654437</t>
-  </si>
-  <si>
     <t>C2761226</t>
   </si>
   <si>
@@ -659,6 +647,9 @@
   </si>
   <si>
     <t>LCSC Part Number</t>
+  </si>
+  <si>
+    <t>C23162</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,16 +1031,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1071,13 +1062,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1085,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,13 +1090,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,13 +1104,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,13 +1118,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,13 +1132,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,13 +1160,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,13 +1174,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,13 +1188,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,13 +1202,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1225,13 +1216,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,13 +1230,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,13 +1244,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,13 +1258,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,13 +1272,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,13 +1286,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,13 +1314,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1337,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1351,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1365,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1379,13 +1370,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,13 +1384,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,13 +1398,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1421,13 +1412,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1435,13 +1426,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,13 +1440,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1463,13 +1454,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,13 +1468,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,13 +1482,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,13 +1496,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,13 +1510,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,13 +1524,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1547,13 +1538,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,13 +1552,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,13 +1566,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,13 +1580,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,13 +1594,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,13 +1608,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42">
-        <v>2303181</v>
+        <v>139</v>
+      </c>
+      <c r="D42" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,13 +1622,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,13 +1636,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,13 +1650,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,13 +1664,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,13 +1678,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,13 +1692,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,13 +1706,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,13 +1720,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,13 +1734,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,13 +1748,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,13 +1762,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,13 +1776,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,13 +1790,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,13 +1804,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,13 +1818,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,13 +1832,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,13 +1846,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,27 +1860,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
